--- a/results/real_data_guru_0.2_opt_constrained/k=0.2/CSG/dataset_08/results_excel_26-9-22_guru_constrained_1_.xlsx
+++ b/results/real_data_guru_0.2_opt_constrained/k=0.2/CSG/dataset_08/results_excel_26-9-22_guru_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_guru_0.2_opt_constrained\k=0.2\CSG\dataset_08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49416DF-14F4-4A64-97EA-6C7C0D9531D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_CSG_dataset_08_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,24 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +229,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +330,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +382,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +575,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -603,7 +702,7 @@
         <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.9589400116482236</v>
+        <v>0.95894001164822362</v>
       </c>
       <c r="O2">
         <v>4339</v>
@@ -612,22 +711,22 @@
         <v>905</v>
       </c>
       <c r="Q2">
-        <v>1.567464242098425</v>
+        <v>1.5674642420984251</v>
       </c>
       <c r="R2">
         <v>2015.444860900926</v>
       </c>
       <c r="S2">
-        <v>4.794475138121547</v>
+        <v>4.7944751381215474</v>
       </c>
       <c r="T2">
-        <v>6.027480916030535</v>
+        <v>6.0274809160305347</v>
       </c>
       <c r="U2">
-        <v>1.79632916491812</v>
+        <v>1.7963291649181199</v>
       </c>
       <c r="V2">
-        <v>2116.404396978631</v>
+        <v>2116.4043969786312</v>
       </c>
       <c r="W2">
         <v>16766</v>
@@ -642,7 +741,7 @@
         <v>1.008481203007519</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -692,13 +791,13 @@
         <v>855</v>
       </c>
       <c r="Q3">
-        <v>1.60498356208472</v>
+        <v>1.6049835620847199</v>
       </c>
       <c r="R3">
-        <v>2028.739054417564</v>
+        <v>2028.7390544175639</v>
       </c>
       <c r="S3">
-        <v>4.977777777777778</v>
+        <v>4.9777777777777779</v>
       </c>
       <c r="T3">
         <v>5.333333333333333</v>
@@ -722,7 +821,7 @@
         <v>1.001187514137073</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +862,7 @@
         <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.9668341708542714</v>
+        <v>0.96683417085427137</v>
       </c>
       <c r="O4">
         <v>6352</v>
@@ -775,19 +874,19 @@
         <v>1.528862504198317</v>
       </c>
       <c r="R4">
-        <v>2869.756331718918</v>
+        <v>2869.7563317189179</v>
       </c>
       <c r="S4">
-        <v>4.612926652142338</v>
+        <v>4.6129266521423382</v>
       </c>
       <c r="T4">
-        <v>7.708507670850767</v>
+        <v>7.7085076708507669</v>
       </c>
       <c r="U4">
-        <v>2.042324611233643</v>
+        <v>2.0423246112336431</v>
       </c>
       <c r="V4">
-        <v>3345.653253745478</v>
+        <v>3345.6532537454782</v>
       </c>
       <c r="W4">
         <v>22982</v>
@@ -799,10 +898,10 @@
         <v>22817</v>
       </c>
       <c r="Z4">
-        <v>1.007231450234474</v>
+        <v>1.0072314502344739</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,7 +942,7 @@
         <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.9666292765002804</v>
+        <v>0.96662927650028041</v>
       </c>
       <c r="O5">
         <v>4471</v>
@@ -855,16 +954,16 @@
         <v>1.597432432534055</v>
       </c>
       <c r="R5">
-        <v>2120.32364855668</v>
+        <v>2120.3236485566799</v>
       </c>
       <c r="S5">
-        <v>4.940331491712707</v>
+        <v>4.9403314917127066</v>
       </c>
       <c r="T5">
-        <v>5.889361702127659</v>
+        <v>5.8893617021276592</v>
       </c>
       <c r="U5">
-        <v>1.773147622033456</v>
+        <v>1.7731476220334561</v>
       </c>
       <c r="V5">
         <v>2196.930926466413</v>
@@ -879,10 +978,10 @@
         <v>20289</v>
       </c>
       <c r="Z5">
-        <v>1.005865247178274</v>
+        <v>1.0058652471782741</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,7 +1022,7 @@
         <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.9452545408032745</v>
+        <v>0.94525454080327453</v>
       </c>
       <c r="O6">
         <v>4844</v>
@@ -935,19 +1034,19 @@
         <v>1.644949575384296</v>
       </c>
       <c r="R6">
-        <v>2370.972147015684</v>
+        <v>2370.9721470156842</v>
       </c>
       <c r="S6">
-        <v>5.180748663101604</v>
+        <v>5.1807486631016042</v>
       </c>
       <c r="T6">
-        <v>7.262711864406779</v>
+        <v>7.2627118644067794</v>
       </c>
       <c r="U6">
-        <v>1.982753294132115</v>
+        <v>1.9827532941321151</v>
       </c>
       <c r="V6">
-        <v>2525.175556462052</v>
+        <v>2525.1755564620521</v>
       </c>
       <c r="W6">
         <v>19287</v>
@@ -959,10 +1058,10 @@
         <v>19073</v>
       </c>
       <c r="Z6">
-        <v>1.011220049284329</v>
+        <v>1.0112200492843291</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1012,16 +1111,16 @@
         <v>980</v>
       </c>
       <c r="Q7">
-        <v>1.659781776663607</v>
+        <v>1.6597817766636069</v>
       </c>
       <c r="R7">
-        <v>2546.413858869665</v>
+        <v>2546.4138588696651</v>
       </c>
       <c r="S7">
-        <v>5.258163265306123</v>
+        <v>5.2581632653061234</v>
       </c>
       <c r="T7">
-        <v>7.090076335877862</v>
+        <v>7.0900763358778622</v>
       </c>
       <c r="U7">
         <v>1.95869610718253</v>
@@ -1042,7 +1141,7 @@
         <v>1.009814380200555</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1182,7 @@
         <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.979011509817197</v>
+        <v>0.97901150981719698</v>
       </c>
       <c r="O8">
         <v>3689</v>
@@ -1092,7 +1191,7 @@
         <v>735</v>
       </c>
       <c r="Q8">
-        <v>1.613240198383839</v>
+        <v>1.6132401983838389</v>
       </c>
       <c r="R8">
         <v>1768.268454187878</v>
@@ -1101,13 +1200,13 @@
         <v>5.019047619047619</v>
       </c>
       <c r="T8">
-        <v>5.6272</v>
+        <v>5.6272000000000002</v>
       </c>
       <c r="U8">
-        <v>1.727611982737581</v>
+        <v>1.7276119827375811</v>
       </c>
       <c r="V8">
-        <v>1812.242510789012</v>
+        <v>1812.2425107890119</v>
       </c>
       <c r="W8">
         <v>16538</v>
@@ -1122,7 +1221,7 @@
         <v>1.003763049283807</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1262,7 @@
         <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.995565988523735</v>
+        <v>0.99556598852373501</v>
       </c>
       <c r="O9">
         <v>4616</v>
@@ -1172,22 +1271,22 @@
         <v>782</v>
       </c>
       <c r="Q9">
-        <v>1.775429067642624</v>
+        <v>1.7754290676426241</v>
       </c>
       <c r="R9">
-        <v>2445.614469103468</v>
+        <v>2445.6144691034679</v>
       </c>
       <c r="S9">
-        <v>5.902813299232736</v>
+        <v>5.9028132992327356</v>
       </c>
       <c r="T9">
-        <v>6.398868458274399</v>
+        <v>6.3988684582743991</v>
       </c>
       <c r="U9">
-        <v>1.856121171339438</v>
+        <v>1.8561211713394381</v>
       </c>
       <c r="V9">
-        <v>2504.722331863017</v>
+        <v>2504.7223318630172</v>
       </c>
       <c r="W9">
         <v>19957</v>
@@ -1199,10 +1298,10 @@
         <v>19940</v>
       </c>
       <c r="Z9">
-        <v>1.000852557673019</v>
+        <v>1.0008525576730189</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1243,7 +1342,7 @@
         <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.9310703152060963</v>
+        <v>0.93107031520609629</v>
       </c>
       <c r="O10">
         <v>3692</v>
@@ -1252,16 +1351,16 @@
         <v>805</v>
       </c>
       <c r="Q10">
-        <v>1.523081318204179</v>
+        <v>1.5230813182041789</v>
       </c>
       <c r="R10">
         <v>1660.919538845636</v>
       </c>
       <c r="S10">
-        <v>4.586335403726708</v>
+        <v>4.5863354037267081</v>
       </c>
       <c r="T10">
-        <v>6.780645161290322</v>
+        <v>6.7806451612903222</v>
       </c>
       <c r="U10">
         <v>1.914072253957704</v>
@@ -1279,10 +1378,10 @@
         <v>16803</v>
       </c>
       <c r="Z10">
-        <v>1.0118431232518</v>
+        <v>1.0118431232517999</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1323,7 +1422,7 @@
         <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.9928037641848879</v>
+        <v>0.99280376418488792</v>
       </c>
       <c r="O11">
         <v>4478</v>
@@ -1335,19 +1434,19 @@
         <v>1.644202290226821</v>
       </c>
       <c r="R11">
-        <v>2190.7650189538</v>
+        <v>2190.7650189537999</v>
       </c>
       <c r="S11">
         <v>5.176878612716763</v>
       </c>
       <c r="T11">
-        <v>5.455900621118013</v>
+        <v>5.4559006211180128</v>
       </c>
       <c r="U11">
         <v>1.696697705770803</v>
       </c>
       <c r="V11">
-        <v>2221.158346854503</v>
+        <v>2221.1583468545032</v>
       </c>
       <c r="W11">
         <v>17901</v>
@@ -1359,10 +1458,53 @@
         <v>17875</v>
       </c>
       <c r="Z11">
-        <v>1.001454545454545</v>
+        <v>1.0014545454545449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12" s="3">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.19199999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.96858419443521693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0061713119705396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.93107031520609629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.0118431232517999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>